--- a/Bug-Reports.xlsx
+++ b/Bug-Reports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec1f8a55814e0058/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Татьяна\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DF75460589B3ACB72841D8FDB7AFC5BDEDD96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E716CC-1B08-4E1B-B0F7-7B0D922A99DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E59FD2-0284-4109-BA62-99A13A61360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>На странице "Введите код из письма" есть кнопка Назад для возврата на предыдущую страницу с целью поменять адрес почты</t>
+  </si>
+  <si>
+    <t>А6</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,6 +694,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{81B5365B-D785-43ED-AFB1-AF76419B556E}"/>

--- a/Bug-Reports.xlsx
+++ b/Bug-Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Татьяна\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E59FD2-0284-4109-BA62-99A13A61360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B39AEE-405E-4FE2-8A55-13224D6F091A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>На странице "Введите код из письма" есть кнопка Назад для возврата на предыдущую страницу с целью поменять адрес почты</t>
-  </si>
-  <si>
-    <t>А6</t>
   </si>
 </sst>
 </file>
@@ -542,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -695,9 +692,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Bug-Reports.xlsx
+++ b/Bug-Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Татьяна\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B39AEE-405E-4FE2-8A55-13224D6F091A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C9E95-5C65-43D2-A5DF-460AA79184FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>На странице "Введите код из письма" есть кнопка Назад для возврата на предыдущую страницу с целью поменять адрес почты</t>
+  </si>
+  <si>
+    <t>A7</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Bug-Reports.xlsx
+++ b/Bug-Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Татьяна\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C9E95-5C65-43D2-A5DF-460AA79184FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0450B-F829-4F6C-9F5D-88448F6ECAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>А8</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,6 +702,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{81B5365B-D785-43ED-AFB1-AF76419B556E}"/>
